--- a/data/case1/20/V2_14.xlsx
+++ b/data/case1/20/V2_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999341261758</v>
+        <v>0.99999999456735889</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99771560763993783</v>
+        <v>0.99711216730554431</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99173594831229861</v>
+        <v>0.98948684640679763</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.99320277487814534</v>
+        <v>0.99166734508190224</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.98147295379847488</v>
+        <v>0.98067295885175465</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.95290691652791781</v>
+        <v>0.95441912211914426</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.94960573376391089</v>
+        <v>0.94909685203559357</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.94461106745081946</v>
+        <v>0.94225898402071739</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.94036433452096313</v>
+        <v>0.93426789092828799</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.93703878228615556</v>
+        <v>0.92719401828717685</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.93733094094801406</v>
+        <v>0.9262161835382261</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.93814429252713016</v>
+        <v>0.92343628294861546</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.94489116096486914</v>
+        <v>0.91214893169967071</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.94906520979401587</v>
+        <v>0.90798150636604902</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.95408778358315405</v>
+        <v>0.90538998059014575</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.96050452565980793</v>
+        <v>0.90288346086217008</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.97692080564414119</v>
+        <v>0.89917550334666108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.97581191838061954</v>
+        <v>0.89806658583142585</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99547238880974409</v>
+        <v>0.99605895384219301</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.97785441907621529</v>
+        <v>0.98894192372897183</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.9731588359801997</v>
+        <v>0.98754343478820483</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.9718943248973968</v>
+        <v>0.9862789312671395</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.98470165840079493</v>
+        <v>0.97981428552881278</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.97168129637027922</v>
+        <v>0.96679356346228573</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.96522438653481779</v>
+        <v>0.96033659177583164</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.94925263524213421</v>
+        <v>0.95177043525141802</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.94440760233120091</v>
+        <v>0.950204121346655</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.92293974141714297</v>
+        <v>0.94372687805836852</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.90767021098766465</v>
+        <v>0.93963409622685612</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.90110019490640303</v>
+        <v>0.93874450114130192</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.89344670942223359</v>
+        <v>0.94531299964907267</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.89176740553410705</v>
+        <v>0.94363372311069582</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.89124740184729445</v>
+        <v>0.94311371296800006</v>
       </c>
     </row>
   </sheetData>
